--- a/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-09-Close/Cash_Flow_Statement_September_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/19_MONTHLY_CLOSE/2024-09-Close/Cash_Flow_Statement_September_2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,12 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
           <t>OPERATING ACTIVITIES</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -521,17 +516,12 @@
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-    </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
           <t>INVESTING ACTIVITIES</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -564,17 +554,12 @@
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-    </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
           <t>FINANCING ACTIVITIES</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -607,10 +592,6 @@
         <v/>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-    </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
@@ -639,6 +620,303 @@
         </is>
       </c>
       <c r="B25" s="2">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51">
+        <f>B24+B25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52">
         <f>B24+B25</f>
         <v/>
       </c>
